--- a/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/006- Variation order for sprinklers and Fire flexible pipe.xlsx
+++ b/Running projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/Variation Order/006- Variation order for sprinklers and Fire flexible pipe.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9150ED3-AD2E-4AE8-8158-739B9A809C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C3DDA1-2D3D-4D76-9870-0739616A5607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,6 +342,18 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -352,18 +364,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,6 +544,50 @@
         <a:xfrm>
           <a:off x="34637" y="8944841"/>
           <a:ext cx="6347114" cy="9178635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25239</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>21917</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A5EAA5-D2ED-F998-70AD-D71FE9DCACAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7195704" y="2000250"/>
+          <a:ext cx="7125694" cy="8135485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +918,10 @@
     <row r="14" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="37"/>
       <c r="I16" s="12">
         <v>45321</v>
       </c>
@@ -892,17 +936,17 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
@@ -916,17 +960,17 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.25">
@@ -959,16 +1003,16 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+      <c r="A25" s="33">
         <v>1</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="35">
         <v>0</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="36">
         <v>500</v>
       </c>
       <c r="E25" s="20">
@@ -991,16 +1035,16 @@
       </c>
     </row>
     <row r="26" spans="1:15" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
+      <c r="A26" s="33">
         <v>2</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="35">
         <v>0</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="36">
         <v>15000</v>
       </c>
       <c r="E26" s="20">
@@ -1087,16 +1131,16 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="31" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="30">
         <f>SUM(I25:I28)</f>
         <v>161477.03999999998</v>
